--- a/CaVaTeCo/form_v_horas.xlsx
+++ b/CaVaTeCo/form_v_horas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CaVaTeCo_ODK\odk_forms_working\CaVaTeCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Dropbox (Terra Firma)\Projects\On_CLCR_Moz_Coastal\ODK\odk_forms_clcr_lot_1_avante\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDE1256C-A4F0-4D25-8D38-D43E6E3AA40F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D9975A-351E-4DE1-B536-4CE99112C197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="24792" windowHeight="13320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,9 +377,6 @@
     <t>horas</t>
   </si>
   <si>
-    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
-  </si>
-  <si>
     <t>select_one_from_file enum_names.csv</t>
   </si>
   <si>
@@ -396,6 +393,9 @@
   </si>
   <si>
     <t>"CLCR Lot 1 Avante"</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registados:</t>
   </si>
 </sst>
 </file>
@@ -1627,10 +1627,10 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1755,7 +1755,7 @@
         <v>104</v>
       </c>
       <c r="M6" s="50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="25" customFormat="1" x14ac:dyDescent="0.3">
@@ -1789,7 +1789,7 @@
         <v>46</v>
       </c>
       <c r="N9" s="58" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="25" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -1828,7 +1828,7 @@
         <v>107</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="J13" s="59" t="s">
         <v>20</v>
@@ -1836,7 +1836,7 @@
     </row>
     <row r="14" spans="1:15" s="59" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="62" t="s">
         <v>108</v>
@@ -1845,7 +1845,7 @@
         <v>109</v>
       </c>
       <c r="D14" s="59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F14" s="61" t="s">
         <v>110</v>
@@ -1862,7 +1862,7 @@
         <v>111</v>
       </c>
       <c r="M15" s="59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="59" customFormat="1" x14ac:dyDescent="0.3">
@@ -7161,12 +7161,12 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A845" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A846" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -7180,7 +7180,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7218,7 +7218,7 @@
         <v>114</v>
       </c>
       <c r="C2" s="53">
-        <v>202401</v>
+        <v>202402</v>
       </c>
       <c r="D2" s="56"/>
       <c r="E2" s="54" t="s">
